--- a/backend_tests/z_input_files/v2/14_processor_scalings_example.xlsx
+++ b/backend_tests/z_input_files/v2/14_processor_scalings_example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BareProcessors" sheetId="1" state="visible" r:id="rId2"/>
@@ -754,8 +754,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1088,6 +1088,9 @@
       <c r="K9" s="0" t="s">
         <v>45</v>
       </c>
+      <c r="Q9" s="0" t="n">
+        <v>2013</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
@@ -1107,6 +1110,9 @@
       </c>
       <c r="K10" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>2013</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1148,6 +1154,9 @@
       </c>
       <c r="K13" s="0" t="s">
         <v>41</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>2013</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1177,7 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
